--- a/biology/Botanique/General_Sherman_(arbre)/General_Sherman_(arbre).xlsx
+++ b/biology/Botanique/General_Sherman_(arbre)/General_Sherman_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le General Sherman est un séquoia géant situé dans la Giant Forest du parc national de Sequoia, en Californie, dans le Sud-Ouest des États-Unis. Il s'agit de l'arbre à un seul tronc qui est le plus imposant au monde : il est ainsi considéré comme l'organisme vivant le plus imposant en raison des 1 487 m3 de son tronc[1]. Son âge est estimé à environ 2 200 ans.
+Le General Sherman est un séquoia géant situé dans la Giant Forest du parc national de Sequoia, en Californie, dans le Sud-Ouest des États-Unis. Il s'agit de l'arbre à un seul tronc qui est le plus imposant au monde : il est ainsi considéré comme l'organisme vivant le plus imposant en raison des 1 487 m3 de son tronc. Son âge est estimé à environ 2 200 ans.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est en 1879 que le naturaliste James Wolverton le baptise « General Sherman » en l'honneur du général William Tecumseh Sherman, qui s'était illustré dans le camp nordiste pendant la guerre de Sécession. Plus tard, l'association socialiste utopique Kaweah Colony (en), qui s'établit près de l'arbre vers 1880 le rebaptise « Karl Marx ». Ce n'est qu'en 1931, que l'arbre est reconnu comme le plus grand du monde, après une controverse l'opposant à un autre séquoia géant voisin, le General Grant, controverse prenant fin avec la découverte en 2006 de l'Hyperion dont la hauteur atteint 115,61 mètres. Désormais, c'est le volume de bois qui est retenu comme le critère le plus important.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
